--- a/database.xlsx
+++ b/database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parvathykrishnank/Documents/GitHub/design4climate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E566A8D-7133-EA48-8877-08C7B504DF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D14A0E-8017-344F-A13A-1A0D4B8962C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1869,7 +1869,7 @@
   <dimension ref="A1:N408"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1878,7 +1878,7 @@
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="4" max="4" width="23.1640625" customWidth="1"/>
     <col min="5" max="5" width="52.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="28.83203125" customWidth="1"/>
     <col min="7" max="7" width="25.33203125" customWidth="1"/>
     <col min="8" max="8" width="14.1640625" customWidth="1"/>
     <col min="9" max="9" width="18.6640625" customWidth="1"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -5,20 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markoniko/Documents/World Bank STC/Deliverables/CCIA-GoAT AI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parvathykrishnank/Documents/GitHub/design4climate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F052A3-14BC-1940-A98A-B4E3DA92B553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA67B518-6564-3042-A728-A0667E8A251F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36400" yWindow="-3720" windowWidth="33600" windowHeight="19240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$421</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$1048555</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -43,36 +44,18 @@
   <commentList>
     <comment ref="D405" authorId="0" shapeId="0" xr:uid="{0BCD6901-9D45-A54B-8317-9365F1284ED5}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Changed from CC Strategy to LTS.</t>
-        </r>
       </text>
     </comment>
     <comment ref="D407" authorId="1" shapeId="0" xr:uid="{79175437-4364-824B-B70F-26D475D3BAFF}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Added by Marko.</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -80,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4836" uniqueCount="1307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4836" uniqueCount="1306">
   <si>
     <t>CMU</t>
   </si>
@@ -3953,9 +3936,6 @@
   </si>
   <si>
     <t>GoU 2019 Green Economy 2019-2030</t>
-  </si>
-  <si>
-    <t>Pub</t>
   </si>
   <si>
     <t>National Forest Concept for Georgia 2013</t>
@@ -4225,7 +4205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4391,7 +4371,6 @@
     <xf numFmtId="15" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -4406,14 +4385,8 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4422,7 +4395,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4984,12 +4956,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C89D7B-8F37-A94E-AED8-9AA1263A2C6A}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q1048555"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A389" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H427" sqref="H427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5104,13 +5075,13 @@
         <v>44562</v>
       </c>
       <c r="O2" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="P2" s="64">
         <v>44562</v>
       </c>
       <c r="Q2" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E2)),"Draft","")</f>
+        <f t="shared" ref="Q2:Q23" si="0">IF(ISNUMBER(SEARCH("Draft",E2)),"Draft","")</f>
         <v/>
       </c>
     </row>
@@ -5161,7 +5132,7 @@
         <v>42736</v>
       </c>
       <c r="Q3" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E3)),"Draft","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5212,7 +5183,7 @@
         <v>43635</v>
       </c>
       <c r="Q4" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E4)),"Draft","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5260,7 +5231,7 @@
         <v>42370</v>
       </c>
       <c r="Q5" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E5)),"Draft","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5311,7 +5282,7 @@
         <v>44197</v>
       </c>
       <c r="Q6" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E6)),"Draft","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5362,7 +5333,7 @@
         <v>43647</v>
       </c>
       <c r="Q7" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E7)),"Draft","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5410,7 +5381,7 @@
         <v>43070</v>
       </c>
       <c r="Q8" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E8)),"Draft","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5461,7 +5432,7 @@
         <v>43503</v>
       </c>
       <c r="Q9" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E9)),"Draft","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5509,7 +5480,7 @@
         <v>43101</v>
       </c>
       <c r="Q10" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E10)),"Draft","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5527,13 +5498,13 @@
         <v>30</v>
       </c>
       <c r="E11" s="56" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F11" s="57" t="s">
         <v>1299</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="G11" s="57" t="s">
         <v>1300</v>
-      </c>
-      <c r="G11" s="57" t="s">
-        <v>1301</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>816</v>
@@ -5553,14 +5524,14 @@
       <c r="M11" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="76">
+      <c r="N11" s="75">
         <v>40703</v>
       </c>
       <c r="P11" s="64">
         <v>40909</v>
       </c>
       <c r="Q11" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E11)),"Draft","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5611,7 +5582,7 @@
         <v>43466</v>
       </c>
       <c r="Q12" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E12)),"Draft","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5662,7 +5633,7 @@
         <v>42614</v>
       </c>
       <c r="Q13" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E13)),"Draft","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5710,7 +5681,7 @@
         <v>44470</v>
       </c>
       <c r="Q14" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E14)),"Draft","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5758,7 +5729,7 @@
         <v>44470</v>
       </c>
       <c r="Q15" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E15)),"Draft","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5809,7 +5780,7 @@
         <v>37284</v>
       </c>
       <c r="Q16" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E16)),"Draft","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5857,7 +5828,7 @@
         <v>917</v>
       </c>
       <c r="Q17" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E17)),"Draft","")</f>
+        <f t="shared" si="0"/>
         <v>Draft</v>
       </c>
     </row>
@@ -5908,7 +5879,7 @@
         <v>45009</v>
       </c>
       <c r="Q18" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E18)),"Draft","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5956,7 +5927,7 @@
         <v>44562</v>
       </c>
       <c r="Q19" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E19)),"Draft","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5974,7 +5945,7 @@
         <v>58</v>
       </c>
       <c r="E20" s="56" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="F20" t="s">
         <v>429</v>
@@ -6004,7 +5975,7 @@
         <v>44317</v>
       </c>
       <c r="Q20" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E20)),"Draft","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -6055,7 +6026,7 @@
         <v>42718</v>
       </c>
       <c r="Q21" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E21)),"Draft","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -6106,7 +6077,7 @@
         <v>43978</v>
       </c>
       <c r="Q22" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E22)),"Draft","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -6123,14 +6094,14 @@
       <c r="D23" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="83" t="s">
+      <c r="E23" s="80" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>1302</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="G23" s="5" t="s">
         <v>1303</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>1304</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>816</v>
@@ -6157,11 +6128,11 @@
         <v>44986</v>
       </c>
       <c r="Q23" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E23)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>37</v>
       </c>
@@ -6205,11 +6176,11 @@
         <v>41821</v>
       </c>
       <c r="Q24" t="str">
-        <f t="shared" ref="Q24:Q61" si="0">IF(ISNUMBER(SEARCH("Draft",E24)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="Q24:Q61" si="1">IF(ISNUMBER(SEARCH("Draft",E24)),"Draft","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>26</v>
       </c>
@@ -6253,11 +6224,11 @@
         <v>40179</v>
       </c>
       <c r="Q25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>371</v>
       </c>
@@ -6304,11 +6275,11 @@
         <v>37827</v>
       </c>
       <c r="Q26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>372</v>
       </c>
@@ -6358,11 +6329,11 @@
         <v>40179</v>
       </c>
       <c r="Q27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>31</v>
       </c>
@@ -6406,11 +6377,11 @@
         <v>44166</v>
       </c>
       <c r="Q28" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>33</v>
       </c>
@@ -6454,11 +6425,11 @@
         <v>42826</v>
       </c>
       <c r="Q29" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>24</v>
       </c>
@@ -6505,11 +6476,11 @@
         <v>42809</v>
       </c>
       <c r="Q30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>32</v>
       </c>
@@ -6553,11 +6524,11 @@
         <v>43342</v>
       </c>
       <c r="Q31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>27</v>
       </c>
@@ -6601,11 +6572,11 @@
         <v>44258</v>
       </c>
       <c r="Q32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>40</v>
       </c>
@@ -6652,11 +6623,11 @@
         <v>41640</v>
       </c>
       <c r="Q33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>28</v>
       </c>
@@ -6700,11 +6671,11 @@
         <v>44166</v>
       </c>
       <c r="Q34" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>29</v>
       </c>
@@ -6748,11 +6719,11 @@
         <v>44896</v>
       </c>
       <c r="Q35" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>30</v>
       </c>
@@ -6796,11 +6767,11 @@
         <v>44287</v>
       </c>
       <c r="Q36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -6847,11 +6818,11 @@
         <v>39448</v>
       </c>
       <c r="Q37" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -6895,11 +6866,11 @@
         <v>917</v>
       </c>
       <c r="Q38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Draft</v>
       </c>
     </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>25</v>
       </c>
@@ -6946,11 +6917,11 @@
         <v>44617</v>
       </c>
       <c r="Q39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>54</v>
       </c>
@@ -6994,11 +6965,11 @@
         <v>44531</v>
       </c>
       <c r="Q40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44</v>
       </c>
@@ -7042,11 +7013,11 @@
         <v>44755</v>
       </c>
       <c r="Q41" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>60</v>
       </c>
@@ -7090,11 +7061,11 @@
         <v>42522</v>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -7138,11 +7109,11 @@
         <v>45288</v>
       </c>
       <c r="Q43" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>46</v>
       </c>
@@ -7186,11 +7157,11 @@
         <v>43377</v>
       </c>
       <c r="Q44" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>48</v>
       </c>
@@ -7234,11 +7205,11 @@
         <v>43739</v>
       </c>
       <c r="Q45" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -7282,11 +7253,11 @@
         <v>43439</v>
       </c>
       <c r="Q46" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -7330,11 +7301,11 @@
         <v>45017</v>
       </c>
       <c r="Q47" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -7378,11 +7349,11 @@
         <v>39968</v>
       </c>
       <c r="Q48" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" t="s">
         <v>403</v>
@@ -7424,11 +7395,11 @@
         <v>44531</v>
       </c>
       <c r="Q49" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>59</v>
       </c>
@@ -7473,11 +7444,11 @@
         <v>917</v>
       </c>
       <c r="Q50" s="34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Draft</v>
       </c>
     </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>52</v>
       </c>
@@ -7521,11 +7492,11 @@
         <v>45017</v>
       </c>
       <c r="Q51" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -7572,11 +7543,11 @@
         <v>40664</v>
       </c>
       <c r="Q52" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -7620,11 +7591,11 @@
         <v>917</v>
       </c>
       <c r="Q53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Draft</v>
       </c>
     </row>
-    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43</v>
       </c>
@@ -7668,11 +7639,11 @@
         <v>42564</v>
       </c>
       <c r="Q54" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>57</v>
       </c>
@@ -7716,11 +7687,11 @@
         <v>44531</v>
       </c>
       <c r="Q55" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -7764,11 +7735,11 @@
         <v>44944</v>
       </c>
       <c r="Q56" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -7815,11 +7786,11 @@
         <v>40330</v>
       </c>
       <c r="Q57" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -7863,11 +7834,11 @@
         <v>44344</v>
       </c>
       <c r="Q58" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -7914,11 +7885,11 @@
         <v>42860</v>
       </c>
       <c r="Q59" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>74</v>
       </c>
@@ -7962,11 +7933,11 @@
         <v>42156</v>
       </c>
       <c r="Q60" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>64</v>
       </c>
@@ -8013,11 +7984,11 @@
         <v>40290</v>
       </c>
       <c r="Q61" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>407</v>
       </c>
@@ -8062,7 +8033,7 @@
       </c>
       <c r="Q62" s="15"/>
     </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>79</v>
       </c>
@@ -8106,11 +8077,11 @@
         <v>42339</v>
       </c>
       <c r="Q63" t="str">
-        <f t="shared" ref="Q63:Q126" si="1">IF(ISNUMBER(SEARCH("Draft",E63)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="Q63:Q126" si="2">IF(ISNUMBER(SEARCH("Draft",E63)),"Draft","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -8157,11 +8128,11 @@
         <v>43462</v>
       </c>
       <c r="Q64" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>68</v>
       </c>
@@ -8205,11 +8176,11 @@
         <v>42552</v>
       </c>
       <c r="Q65" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>70</v>
       </c>
@@ -8253,11 +8224,11 @@
         <v>38687</v>
       </c>
       <c r="Q66" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>62</v>
       </c>
@@ -8304,11 +8275,11 @@
         <v>43585</v>
       </c>
       <c r="Q67" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>69</v>
       </c>
@@ -8352,11 +8323,11 @@
         <v>39417</v>
       </c>
       <c r="Q68" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>65</v>
       </c>
@@ -8403,11 +8374,11 @@
         <v>42579</v>
       </c>
       <c r="Q69" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>78</v>
       </c>
@@ -8454,11 +8425,11 @@
         <v>41699</v>
       </c>
       <c r="Q70" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>72</v>
       </c>
@@ -8502,11 +8473,11 @@
         <v>43739</v>
       </c>
       <c r="Q71" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>66</v>
       </c>
@@ -8550,11 +8521,11 @@
         <v>45170</v>
       </c>
       <c r="Q72" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>67</v>
       </c>
@@ -8598,11 +8569,11 @@
         <v>44348</v>
       </c>
       <c r="Q73" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>63</v>
       </c>
@@ -8646,11 +8617,11 @@
         <v>42367</v>
       </c>
       <c r="Q74" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>76</v>
       </c>
@@ -8694,11 +8665,11 @@
         <v>42156</v>
       </c>
       <c r="Q75" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>73</v>
       </c>
@@ -8742,11 +8713,11 @@
         <v>43497</v>
       </c>
       <c r="Q76" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -8790,11 +8761,11 @@
         <v>39508</v>
       </c>
       <c r="Q77" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>95</v>
       </c>
@@ -8838,11 +8809,11 @@
         <v>44166</v>
       </c>
       <c r="Q78" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>83</v>
       </c>
@@ -8889,11 +8860,11 @@
         <v>41068</v>
       </c>
       <c r="Q79" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>89</v>
       </c>
@@ -8938,11 +8909,11 @@
         <v>43067</v>
       </c>
       <c r="Q80" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>101</v>
       </c>
@@ -8986,11 +8957,11 @@
         <v>43172</v>
       </c>
       <c r="Q81" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>88</v>
       </c>
@@ -9034,11 +9005,11 @@
         <v>44440</v>
       </c>
       <c r="Q82" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -9082,11 +9053,11 @@
         <v>43964</v>
       </c>
       <c r="Q83" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>361</v>
       </c>
@@ -9133,11 +9104,11 @@
         <v>44334</v>
       </c>
       <c r="Q84" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>362</v>
       </c>
@@ -9184,11 +9155,11 @@
         <v>44872</v>
       </c>
       <c r="Q85" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>87</v>
       </c>
@@ -9232,11 +9203,11 @@
         <v>43739</v>
       </c>
       <c r="Q86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Draft</v>
       </c>
     </row>
-    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>84</v>
       </c>
@@ -9280,11 +9251,11 @@
         <v>38504</v>
       </c>
       <c r="Q87" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>100</v>
       </c>
@@ -9328,11 +9299,11 @@
         <v>38869</v>
       </c>
       <c r="Q88" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>376</v>
       </c>
@@ -9379,11 +9350,11 @@
         <v>44974</v>
       </c>
       <c r="Q89" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>377</v>
       </c>
@@ -9430,11 +9401,11 @@
         <v>45238</v>
       </c>
       <c r="Q90" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>93</v>
       </c>
@@ -9481,11 +9452,11 @@
         <v>43374</v>
       </c>
       <c r="Q91" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>85</v>
       </c>
@@ -9529,11 +9500,11 @@
         <v>44501</v>
       </c>
       <c r="Q92" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>86</v>
       </c>
@@ -9577,11 +9548,11 @@
         <v>44287</v>
       </c>
       <c r="Q93" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>90</v>
       </c>
@@ -9625,11 +9596,11 @@
         <v>43160</v>
       </c>
       <c r="Q94" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>91</v>
       </c>
@@ -9673,11 +9644,11 @@
         <v>44562</v>
       </c>
       <c r="Q95" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>82</v>
       </c>
@@ -9721,11 +9692,11 @@
         <v>43241</v>
       </c>
       <c r="Q96" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>363</v>
       </c>
@@ -9772,11 +9743,11 @@
         <v>43602</v>
       </c>
       <c r="Q97" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>119</v>
       </c>
@@ -9820,11 +9791,11 @@
         <v>44562</v>
       </c>
       <c r="Q98" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>105</v>
       </c>
@@ -9871,11 +9842,11 @@
         <v>44286</v>
       </c>
       <c r="Q99" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>113</v>
       </c>
@@ -9919,11 +9890,11 @@
         <v>44896</v>
       </c>
       <c r="Q100" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>125</v>
       </c>
@@ -9967,11 +9938,11 @@
         <v>40575</v>
       </c>
       <c r="Q101" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>102</v>
       </c>
@@ -10018,11 +9989,11 @@
         <v>44273</v>
       </c>
       <c r="Q102" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>110</v>
       </c>
@@ -10066,11 +10037,11 @@
         <v>45078</v>
       </c>
       <c r="Q103" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>112</v>
       </c>
@@ -10114,11 +10085,11 @@
         <v>44561</v>
       </c>
       <c r="Q104" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -10165,11 +10136,11 @@
         <v>44308</v>
       </c>
       <c r="Q105" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>111</v>
       </c>
@@ -10213,11 +10184,11 @@
         <v>42522</v>
       </c>
       <c r="Q106" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -10264,11 +10235,11 @@
         <v>43525</v>
       </c>
       <c r="Q107" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>124</v>
       </c>
@@ -10312,11 +10283,11 @@
         <v>38718</v>
       </c>
       <c r="Q108" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>117</v>
       </c>
@@ -10360,11 +10331,11 @@
         <v>43895</v>
       </c>
       <c r="Q109" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>107</v>
       </c>
@@ -10408,11 +10379,11 @@
         <v>45078</v>
       </c>
       <c r="Q110" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>108</v>
       </c>
@@ -10456,11 +10427,11 @@
         <v>917</v>
       </c>
       <c r="Q111" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Draft</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>109</v>
       </c>
@@ -10504,11 +10475,11 @@
         <v>44774</v>
       </c>
       <c r="Q112" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>114</v>
       </c>
@@ -10552,11 +10523,11 @@
         <v>38261</v>
       </c>
       <c r="Q113" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>115</v>
       </c>
@@ -10600,11 +10571,11 @@
         <v>917</v>
       </c>
       <c r="Q114" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Draft</v>
       </c>
     </row>
-    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>104</v>
       </c>
@@ -10651,11 +10622,11 @@
         <v>44308</v>
       </c>
       <c r="Q115" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>122</v>
       </c>
@@ -10699,11 +10670,11 @@
         <v>44562</v>
       </c>
       <c r="Q116" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>118</v>
       </c>
@@ -10747,11 +10718,11 @@
         <v>39443</v>
       </c>
       <c r="Q117" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>121</v>
       </c>
@@ -10795,11 +10766,11 @@
         <v>43435</v>
       </c>
       <c r="Q118" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>120</v>
       </c>
@@ -10843,11 +10814,11 @@
         <v>44589</v>
       </c>
       <c r="Q119" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>123</v>
       </c>
@@ -10892,11 +10863,11 @@
         <v>917</v>
       </c>
       <c r="Q120" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Draft</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>128</v>
       </c>
@@ -10940,11 +10911,11 @@
         <v>36951</v>
       </c>
       <c r="Q121" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>135</v>
       </c>
@@ -10988,11 +10959,11 @@
         <v>42646</v>
       </c>
       <c r="Q122" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>131</v>
       </c>
@@ -11037,11 +11008,11 @@
         <v>402</v>
       </c>
       <c r="Q123" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>126</v>
       </c>
@@ -11088,11 +11059,11 @@
         <v>44743</v>
       </c>
       <c r="Q124" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>129</v>
       </c>
@@ -11136,11 +11107,11 @@
         <v>44958</v>
       </c>
       <c r="Q125" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>134</v>
       </c>
@@ -11184,11 +11155,11 @@
         <v>41609</v>
       </c>
       <c r="Q126" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>130</v>
       </c>
@@ -11232,11 +11203,11 @@
         <v>42736</v>
       </c>
       <c r="Q127" t="str">
-        <f t="shared" ref="Q127:Q190" si="2">IF(ISNUMBER(SEARCH("Draft",E127)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="Q127:Q190" si="3">IF(ISNUMBER(SEARCH("Draft",E127)),"Draft","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>404</v>
       </c>
@@ -11280,11 +11251,11 @@
         <v>45200</v>
       </c>
       <c r="Q128" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -11331,11 +11302,11 @@
         <v>44317</v>
       </c>
       <c r="Q129" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>149</v>
       </c>
@@ -11379,11 +11350,11 @@
         <v>43800</v>
       </c>
       <c r="Q130" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>388</v>
       </c>
@@ -11430,11 +11401,11 @@
         <v>43818</v>
       </c>
       <c r="Q131" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>392</v>
       </c>
@@ -11481,11 +11452,11 @@
         <v>45128</v>
       </c>
       <c r="Q132" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>138</v>
       </c>
@@ -11532,11 +11503,11 @@
         <v>44621</v>
       </c>
       <c r="Q133" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>383</v>
       </c>
@@ -11583,11 +11554,11 @@
         <v>44896</v>
       </c>
       <c r="Q134" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>145</v>
       </c>
@@ -11632,11 +11603,11 @@
         <v>917</v>
       </c>
       <c r="Q135" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Draft</v>
       </c>
     </row>
-    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>144</v>
       </c>
@@ -11680,11 +11651,11 @@
         <v>39173</v>
       </c>
       <c r="Q136" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -11728,11 +11699,11 @@
         <v>38047</v>
       </c>
       <c r="Q137" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>385</v>
       </c>
@@ -11779,11 +11750,11 @@
         <v>43929</v>
       </c>
       <c r="Q138" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>387</v>
       </c>
@@ -11830,11 +11801,11 @@
         <v>42524</v>
       </c>
       <c r="Q139" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>143</v>
       </c>
@@ -11878,11 +11849,11 @@
         <v>44197</v>
       </c>
       <c r="Q140" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -11932,11 +11903,11 @@
         <v>38453</v>
       </c>
       <c r="Q141" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>393</v>
       </c>
@@ -11983,11 +11954,11 @@
         <v>45076</v>
       </c>
       <c r="Q142" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>152</v>
       </c>
@@ -12031,11 +12002,11 @@
         <v>38534</v>
       </c>
       <c r="Q143" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>390</v>
       </c>
@@ -12083,11 +12054,11 @@
         <v>917</v>
       </c>
       <c r="Q144" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Draft</v>
       </c>
     </row>
-    <row r="145" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>147</v>
       </c>
@@ -12134,11 +12105,11 @@
         <v>43800</v>
       </c>
       <c r="Q145" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>166</v>
       </c>
@@ -12179,11 +12150,11 @@
         <v>43800</v>
       </c>
       <c r="Q146" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>155</v>
       </c>
@@ -12224,11 +12195,11 @@
         <v>42156</v>
       </c>
       <c r="Q147" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>162</v>
       </c>
@@ -12275,11 +12246,11 @@
         <v>44927</v>
       </c>
       <c r="Q148" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>171</v>
       </c>
@@ -12320,11 +12291,11 @@
         <v>41883</v>
       </c>
       <c r="Q149" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>159</v>
       </c>
@@ -12368,11 +12339,11 @@
         <v>44378</v>
       </c>
       <c r="Q150" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>358</v>
       </c>
@@ -12416,11 +12387,11 @@
         <v>917</v>
       </c>
       <c r="Q151" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Draft</v>
       </c>
     </row>
-    <row r="152" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>161</v>
       </c>
@@ -12461,11 +12432,11 @@
         <v>43101</v>
       </c>
       <c r="Q152" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>153</v>
       </c>
@@ -12506,11 +12477,11 @@
         <v>43972</v>
       </c>
       <c r="Q153" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>359</v>
       </c>
@@ -12551,11 +12522,11 @@
         <v>43972</v>
       </c>
       <c r="Q154" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>160</v>
       </c>
@@ -12599,11 +12570,11 @@
         <v>43678</v>
       </c>
       <c r="Q155" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>156</v>
       </c>
@@ -12644,11 +12615,11 @@
         <v>41640</v>
       </c>
       <c r="Q156" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" s="65">
         <v>170</v>
       </c>
@@ -12662,13 +12633,13 @@
         <v>66</v>
       </c>
       <c r="E157" s="56" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F157" s="57" t="s">
         <v>1288</v>
       </c>
-      <c r="F157" s="57" t="s">
+      <c r="G157" s="61" t="s">
         <v>1289</v>
-      </c>
-      <c r="G157" s="61" t="s">
-        <v>1290</v>
       </c>
       <c r="H157" s="56"/>
       <c r="I157" s="56" t="s">
@@ -12678,13 +12649,13 @@
       <c r="K157" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="L157" s="74" t="s">
+      <c r="L157" s="73" t="s">
         <v>1202</v>
       </c>
-      <c r="M157" s="75" t="s">
+      <c r="M157" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="N157" s="76">
+      <c r="N157" s="75">
         <v>41619</v>
       </c>
       <c r="O157" s="56"/>
@@ -12692,11 +12663,11 @@
         <v>41619</v>
       </c>
       <c r="Q157" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>165</v>
       </c>
@@ -12737,11 +12708,11 @@
         <v>44810</v>
       </c>
       <c r="Q158" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -12782,11 +12753,11 @@
         <v>45017</v>
       </c>
       <c r="Q159" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -12827,11 +12798,11 @@
         <v>44317</v>
       </c>
       <c r="Q160" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>163</v>
       </c>
@@ -12875,11 +12846,11 @@
         <v>44562</v>
       </c>
       <c r="Q161" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>154</v>
       </c>
@@ -12920,11 +12891,11 @@
         <v>43819</v>
       </c>
       <c r="Q162" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163" s="9"/>
       <c r="B163" t="s">
         <v>408</v>
@@ -12963,11 +12934,11 @@
         <v>44383</v>
       </c>
       <c r="Q163" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>168</v>
       </c>
@@ -13008,11 +12979,11 @@
         <v>43800</v>
       </c>
       <c r="Q164" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>180</v>
       </c>
@@ -13059,11 +13030,11 @@
         <v>43830</v>
       </c>
       <c r="Q165" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="166" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>181</v>
       </c>
@@ -13107,11 +13078,11 @@
         <v>36161</v>
       </c>
       <c r="Q166" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>178</v>
       </c>
@@ -13155,11 +13126,11 @@
         <v>44866</v>
       </c>
       <c r="Q167" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>172</v>
       </c>
@@ -13203,11 +13174,11 @@
         <v>40909</v>
       </c>
       <c r="Q168" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>374</v>
       </c>
@@ -13254,11 +13225,11 @@
         <v>45013</v>
       </c>
       <c r="Q169" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>174</v>
       </c>
@@ -13302,11 +13273,11 @@
         <v>44287</v>
       </c>
       <c r="Q170" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>379</v>
       </c>
@@ -13350,11 +13321,11 @@
         <v>45035</v>
       </c>
       <c r="Q171" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>373</v>
       </c>
@@ -13401,11 +13372,11 @@
         <v>45013</v>
       </c>
       <c r="Q172" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>175</v>
       </c>
@@ -13452,11 +13423,11 @@
         <v>44958</v>
       </c>
       <c r="Q173" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>176</v>
       </c>
@@ -13503,11 +13474,11 @@
         <v>402</v>
       </c>
       <c r="Q174" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>190</v>
       </c>
@@ -13551,11 +13522,11 @@
         <v>43800</v>
       </c>
       <c r="Q175" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>184</v>
       </c>
@@ -13602,11 +13573,11 @@
         <v>44562</v>
       </c>
       <c r="Q176" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="177" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>192</v>
       </c>
@@ -13650,11 +13621,11 @@
         <v>36312</v>
       </c>
       <c r="Q177" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>188</v>
       </c>
@@ -13701,11 +13672,11 @@
         <v>37288</v>
       </c>
       <c r="Q178" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>182</v>
       </c>
@@ -13752,11 +13723,11 @@
         <v>43160</v>
       </c>
       <c r="Q179" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>185</v>
       </c>
@@ -13803,11 +13774,11 @@
         <v>44470</v>
       </c>
       <c r="Q180" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>191</v>
       </c>
@@ -13854,11 +13825,11 @@
         <v>43860</v>
       </c>
       <c r="Q181" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>186</v>
       </c>
@@ -13905,11 +13876,11 @@
         <v>44476</v>
       </c>
       <c r="Q182" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>187</v>
       </c>
@@ -13953,11 +13924,11 @@
         <v>43612</v>
       </c>
       <c r="Q183" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -14004,11 +13975,11 @@
         <v>42370</v>
       </c>
       <c r="Q184" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>204</v>
       </c>
@@ -14052,11 +14023,11 @@
         <v>41122</v>
       </c>
       <c r="Q185" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>368</v>
       </c>
@@ -14100,11 +14071,11 @@
         <v>402</v>
       </c>
       <c r="Q186" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>369</v>
       </c>
@@ -14148,11 +14119,11 @@
         <v>402</v>
       </c>
       <c r="Q187" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="188" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>370</v>
       </c>
@@ -14196,11 +14167,11 @@
         <v>402</v>
       </c>
       <c r="Q188" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="189" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>195</v>
       </c>
@@ -14244,11 +14215,11 @@
         <v>35096</v>
       </c>
       <c r="Q189" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="190" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>208</v>
       </c>
@@ -14292,11 +14263,11 @@
         <v>42590</v>
       </c>
       <c r="Q190" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="191" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>199</v>
       </c>
@@ -14337,11 +14308,11 @@
         <v>41446</v>
       </c>
       <c r="Q191" t="str">
-        <f t="shared" ref="Q191:Q254" si="3">IF(ISNUMBER(SEARCH("Draft",E191)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="192" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="Q191:Q254" si="4">IF(ISNUMBER(SEARCH("Draft",E191)),"Draft","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>193</v>
       </c>
@@ -14385,11 +14356,11 @@
         <v>41518</v>
       </c>
       <c r="Q192" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="193" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>196</v>
       </c>
@@ -14433,11 +14404,11 @@
         <v>40756</v>
       </c>
       <c r="Q193" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="194" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>207</v>
       </c>
@@ -14481,11 +14452,11 @@
         <v>38646</v>
       </c>
       <c r="Q194" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="195" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>202</v>
       </c>
@@ -14529,11 +14500,11 @@
         <v>402</v>
       </c>
       <c r="Q195" s="40" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="196" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>197</v>
       </c>
@@ -14577,11 +14548,11 @@
         <v>43739</v>
       </c>
       <c r="Q196" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="197" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>198</v>
       </c>
@@ -14622,11 +14593,11 @@
         <v>44470</v>
       </c>
       <c r="Q197" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="198" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>200</v>
       </c>
@@ -14667,11 +14638,11 @@
         <v>38840</v>
       </c>
       <c r="Q198" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="199" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>209</v>
       </c>
@@ -14715,11 +14686,11 @@
         <v>42472</v>
       </c>
       <c r="Q199" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="200" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>194</v>
       </c>
@@ -14760,11 +14731,11 @@
         <v>40179</v>
       </c>
       <c r="Q200" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="201" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>211</v>
       </c>
@@ -14811,11 +14782,11 @@
         <v>43221</v>
       </c>
       <c r="Q201" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="202" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>215</v>
       </c>
@@ -14862,11 +14833,11 @@
         <v>43282</v>
       </c>
       <c r="Q202" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="203" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>214</v>
       </c>
@@ -14910,11 +14881,11 @@
         <v>44317</v>
       </c>
       <c r="Q203" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="204" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>212</v>
       </c>
@@ -14961,11 +14932,11 @@
         <v>42814</v>
       </c>
       <c r="Q204" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="205" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>213</v>
       </c>
@@ -15009,11 +14980,11 @@
         <v>44927</v>
       </c>
       <c r="Q205" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="206" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>210</v>
       </c>
@@ -15060,11 +15031,11 @@
         <v>44268</v>
       </c>
       <c r="Q206" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="207" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>226</v>
       </c>
@@ -15111,11 +15082,11 @@
         <v>44070</v>
       </c>
       <c r="Q207" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="208" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>218</v>
       </c>
@@ -15162,11 +15133,11 @@
         <v>35400</v>
       </c>
       <c r="Q208" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="209" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>230</v>
       </c>
@@ -15213,11 +15184,11 @@
         <v>43628</v>
       </c>
       <c r="Q209" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="210" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>224</v>
       </c>
@@ -15261,11 +15232,11 @@
         <v>45231</v>
       </c>
       <c r="Q210" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="211" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>222</v>
       </c>
@@ -15312,11 +15283,11 @@
         <v>43699</v>
       </c>
       <c r="Q211" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="212" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>216</v>
       </c>
@@ -15360,11 +15331,11 @@
         <v>35431</v>
       </c>
       <c r="Q212" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="213" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>221</v>
       </c>
@@ -15408,11 +15379,11 @@
         <v>43678</v>
       </c>
       <c r="Q213" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="214" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>219</v>
       </c>
@@ -15456,11 +15427,11 @@
         <v>33947</v>
       </c>
       <c r="Q214" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="215" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>229</v>
       </c>
@@ -15507,11 +15478,11 @@
         <v>44111</v>
       </c>
       <c r="Q215" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="216" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>220</v>
       </c>
@@ -15555,11 +15526,11 @@
         <v>44470</v>
       </c>
       <c r="Q216" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="217" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>223</v>
       </c>
@@ -15606,11 +15577,11 @@
         <v>43768</v>
       </c>
       <c r="Q217" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="218" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>231</v>
       </c>
@@ -15657,11 +15628,11 @@
         <v>44111</v>
       </c>
       <c r="Q218" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="219" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>405</v>
       </c>
@@ -15708,11 +15679,11 @@
         <v>45016</v>
       </c>
       <c r="Q219" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="220" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>217</v>
       </c>
@@ -15756,11 +15727,11 @@
         <v>43606</v>
       </c>
       <c r="Q220" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="221" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>225</v>
       </c>
@@ -15807,11 +15778,11 @@
         <v>44398</v>
       </c>
       <c r="Q221" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="222" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>227</v>
       </c>
@@ -15858,11 +15829,11 @@
         <v>44286</v>
       </c>
       <c r="Q222" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="223" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>250</v>
       </c>
@@ -15906,11 +15877,11 @@
         <v>43497</v>
       </c>
       <c r="Q223" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="224" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>243</v>
       </c>
@@ -15954,11 +15925,11 @@
         <v>44713</v>
       </c>
       <c r="Q224" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="225" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>238</v>
       </c>
@@ -16002,11 +15973,11 @@
         <v>41913</v>
       </c>
       <c r="Q225" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="226" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>240</v>
       </c>
@@ -16050,11 +16021,11 @@
         <v>43160</v>
       </c>
       <c r="Q226" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="227" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>233</v>
       </c>
@@ -16098,11 +16069,11 @@
         <v>39203</v>
       </c>
       <c r="Q227" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="228" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>239</v>
       </c>
@@ -16146,11 +16117,11 @@
         <v>44896</v>
       </c>
       <c r="Q228" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="229" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>235</v>
       </c>
@@ -16194,11 +16165,11 @@
         <v>44562</v>
       </c>
       <c r="Q229" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="230" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>249</v>
       </c>
@@ -16242,11 +16213,11 @@
         <v>43511</v>
       </c>
       <c r="Q230" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="231" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>242</v>
       </c>
@@ -16293,11 +16264,11 @@
         <v>44562</v>
       </c>
       <c r="Q231" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="232" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>236</v>
       </c>
@@ -16341,11 +16312,11 @@
         <v>40848</v>
       </c>
       <c r="Q232" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="233" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>237</v>
       </c>
@@ -16389,11 +16360,11 @@
         <v>45017</v>
       </c>
       <c r="Q233" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="234" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>241</v>
       </c>
@@ -16437,11 +16408,11 @@
         <v>36708</v>
       </c>
       <c r="Q234" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="235" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>251</v>
       </c>
@@ -16485,11 +16456,11 @@
         <v>45017</v>
       </c>
       <c r="Q235" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="236" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -16533,11 +16504,11 @@
         <v>38473</v>
       </c>
       <c r="Q236" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="237" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>247</v>
       </c>
@@ -16584,11 +16555,11 @@
         <v>44354</v>
       </c>
       <c r="Q237" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="238" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>244</v>
       </c>
@@ -16632,11 +16603,11 @@
         <v>44859</v>
       </c>
       <c r="Q238" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="239" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>246</v>
       </c>
@@ -16680,11 +16651,11 @@
         <v>43676</v>
       </c>
       <c r="Q239" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="240" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>245</v>
       </c>
@@ -16731,11 +16702,11 @@
         <v>43070</v>
       </c>
       <c r="Q240" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="241" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>248</v>
       </c>
@@ -16782,11 +16753,11 @@
         <v>43609</v>
       </c>
       <c r="Q241" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="242" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>266</v>
       </c>
@@ -16830,11 +16801,11 @@
         <v>41804</v>
       </c>
       <c r="Q242" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="243" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>400</v>
       </c>
@@ -16881,11 +16852,11 @@
         <v>45022</v>
       </c>
       <c r="Q243" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="244" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>254</v>
       </c>
@@ -16932,11 +16903,11 @@
         <v>44665</v>
       </c>
       <c r="Q244" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="245" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>272</v>
       </c>
@@ -16981,11 +16952,11 @@
         <v>42142</v>
       </c>
       <c r="Q245" s="38" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="246" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>259</v>
       </c>
@@ -17032,11 +17003,11 @@
         <v>45257</v>
       </c>
       <c r="Q246" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="247" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>261</v>
       </c>
@@ -17083,11 +17054,11 @@
         <v>43826</v>
       </c>
       <c r="Q247" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="248" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>252</v>
       </c>
@@ -17134,11 +17105,11 @@
         <v>45257</v>
       </c>
       <c r="Q248" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="249" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>394</v>
       </c>
@@ -17185,11 +17156,11 @@
         <v>45085</v>
       </c>
       <c r="Q249" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="250" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>260</v>
       </c>
@@ -17236,11 +17207,11 @@
         <v>43300</v>
       </c>
       <c r="Q250" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="251" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>399</v>
       </c>
@@ -17287,11 +17258,11 @@
         <v>45085</v>
       </c>
       <c r="Q251" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="252" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>255</v>
       </c>
@@ -17338,11 +17309,11 @@
         <v>41030</v>
       </c>
       <c r="Q252" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="253" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>396</v>
       </c>
@@ -17389,11 +17360,11 @@
         <v>44866</v>
       </c>
       <c r="Q253" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="254" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>271</v>
       </c>
@@ -17437,11 +17408,11 @@
         <v>34136</v>
       </c>
       <c r="Q254" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="255" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>264</v>
       </c>
@@ -17488,11 +17459,11 @@
         <v>45272</v>
       </c>
       <c r="Q255" s="14" t="str">
-        <f t="shared" ref="Q255:Q318" si="4">IF(ISNUMBER(SEARCH("Draft",E255)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="256" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="Q255:Q318" si="5">IF(ISNUMBER(SEARCH("Draft",E255)),"Draft","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>256</v>
       </c>
@@ -17539,11 +17510,11 @@
         <v>37073</v>
       </c>
       <c r="Q256" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="257" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>257</v>
       </c>
@@ -17587,11 +17558,11 @@
         <v>41983</v>
       </c>
       <c r="Q257" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="258" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>397</v>
       </c>
@@ -17638,11 +17609,11 @@
         <v>41165</v>
       </c>
       <c r="Q258" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="259" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>398</v>
       </c>
@@ -17689,11 +17660,11 @@
         <v>45257</v>
       </c>
       <c r="Q259" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="260" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -17737,11 +17708,11 @@
         <v>44713</v>
       </c>
       <c r="Q260" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="261" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>262</v>
       </c>
@@ -17788,11 +17759,11 @@
         <v>44782</v>
       </c>
       <c r="Q261" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="262" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>284</v>
       </c>
@@ -17836,11 +17807,11 @@
         <v>42303</v>
       </c>
       <c r="Q262" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="263" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>275</v>
       </c>
@@ -17887,11 +17858,11 @@
         <v>45200</v>
       </c>
       <c r="Q263" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="264" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>289</v>
       </c>
@@ -17935,11 +17906,11 @@
         <v>40557</v>
       </c>
       <c r="Q264" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="265" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>380</v>
       </c>
@@ -17986,11 +17957,11 @@
         <v>917</v>
       </c>
       <c r="Q265" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Draft</v>
       </c>
     </row>
-    <row r="266" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>381</v>
       </c>
@@ -18037,11 +18008,11 @@
         <v>45297</v>
       </c>
       <c r="Q266" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="267" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>281</v>
       </c>
@@ -18085,11 +18056,11 @@
         <v>42333</v>
       </c>
       <c r="Q267" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="268" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>273</v>
       </c>
@@ -18133,11 +18104,11 @@
         <v>44333</v>
       </c>
       <c r="Q268" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="269" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>280</v>
       </c>
@@ -18181,11 +18152,11 @@
         <v>42965</v>
       </c>
       <c r="Q269" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="270" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>276</v>
       </c>
@@ -18229,11 +18200,11 @@
         <v>44354</v>
       </c>
       <c r="Q270" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="271" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>288</v>
       </c>
@@ -18280,11 +18251,11 @@
         <v>44559</v>
       </c>
       <c r="Q271" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="272" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>277</v>
       </c>
@@ -18328,11 +18299,11 @@
         <v>43040</v>
       </c>
       <c r="Q272" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="273" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>278</v>
       </c>
@@ -18379,11 +18350,11 @@
         <v>44499</v>
       </c>
       <c r="Q273" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="274" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>279</v>
       </c>
@@ -18427,11 +18398,11 @@
         <v>44378</v>
       </c>
       <c r="Q274" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="275" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>282</v>
       </c>
@@ -18478,11 +18449,11 @@
         <v>43514</v>
       </c>
       <c r="Q275" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="276" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>382</v>
       </c>
@@ -18526,11 +18497,11 @@
         <v>917</v>
       </c>
       <c r="Q276" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Draft</v>
       </c>
     </row>
-    <row r="277" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>290</v>
       </c>
@@ -18574,11 +18545,11 @@
         <v>44669</v>
       </c>
       <c r="Q277" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="278" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>274</v>
       </c>
@@ -18622,11 +18593,11 @@
         <v>44354</v>
       </c>
       <c r="Q278" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="279" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>286</v>
       </c>
@@ -18671,11 +18642,11 @@
         <v>917</v>
       </c>
       <c r="Q279" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Draft</v>
       </c>
     </row>
-    <row r="280" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>305</v>
       </c>
@@ -18722,11 +18693,11 @@
         <v>44593</v>
       </c>
       <c r="Q280" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="281" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>294</v>
       </c>
@@ -18773,11 +18744,11 @@
         <v>43800</v>
       </c>
       <c r="Q281" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="282" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>301</v>
       </c>
@@ -18824,11 +18795,11 @@
         <v>43709</v>
       </c>
       <c r="Q282" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="283" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>311</v>
       </c>
@@ -18872,11 +18843,11 @@
         <v>42923</v>
       </c>
       <c r="Q283" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="284" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>291</v>
       </c>
@@ -18923,11 +18894,11 @@
         <v>43800</v>
       </c>
       <c r="Q284" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="285" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>300</v>
       </c>
@@ -18974,11 +18945,11 @@
         <v>44774</v>
       </c>
       <c r="Q285" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="286" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>292</v>
       </c>
@@ -19025,11 +18996,11 @@
         <v>41935</v>
       </c>
       <c r="Q286" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="287" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>299</v>
       </c>
@@ -19076,11 +19047,11 @@
         <v>43862</v>
       </c>
       <c r="Q287" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="288" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>295</v>
       </c>
@@ -19127,11 +19098,11 @@
         <v>41426</v>
       </c>
       <c r="Q288" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="289" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>310</v>
       </c>
@@ -19178,11 +19149,11 @@
         <v>43435</v>
       </c>
       <c r="Q289" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="290" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>296</v>
       </c>
@@ -19229,11 +19200,11 @@
         <v>44348</v>
       </c>
       <c r="Q290" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="291" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>297</v>
       </c>
@@ -19280,11 +19251,11 @@
         <v>43922</v>
       </c>
       <c r="Q291" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="292" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>298</v>
       </c>
@@ -19328,11 +19299,11 @@
         <v>45215</v>
       </c>
       <c r="Q292" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="293" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>302</v>
       </c>
@@ -19379,11 +19350,11 @@
         <v>42923</v>
       </c>
       <c r="Q293" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="294" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>303</v>
       </c>
@@ -19427,11 +19398,11 @@
         <v>45078</v>
       </c>
       <c r="Q294" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="295" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>312</v>
       </c>
@@ -19475,11 +19446,11 @@
         <v>44621</v>
       </c>
       <c r="Q295" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="296" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>293</v>
       </c>
@@ -19526,11 +19497,11 @@
         <v>42248</v>
       </c>
       <c r="Q296" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="297" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>308</v>
       </c>
@@ -19577,11 +19548,11 @@
         <v>44593</v>
       </c>
       <c r="Q297" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="298" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>304</v>
       </c>
@@ -19625,11 +19596,11 @@
         <v>42948</v>
       </c>
       <c r="Q298" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="299" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>307</v>
       </c>
@@ -19676,11 +19647,11 @@
         <v>43009</v>
       </c>
       <c r="Q299" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="300" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>306</v>
       </c>
@@ -19727,11 +19698,11 @@
         <v>45078</v>
       </c>
       <c r="Q300" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="301" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>309</v>
       </c>
@@ -19778,11 +19749,11 @@
         <v>45078</v>
       </c>
       <c r="Q301" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="302" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>328</v>
       </c>
@@ -19826,11 +19797,11 @@
         <v>42871</v>
       </c>
       <c r="Q302" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="303" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>315</v>
       </c>
@@ -19877,11 +19848,11 @@
         <v>44468</v>
       </c>
       <c r="Q303" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="304" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>323</v>
       </c>
@@ -19928,11 +19899,11 @@
         <v>45217</v>
       </c>
       <c r="Q304" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="305" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>334</v>
       </c>
@@ -19976,11 +19947,11 @@
         <v>42314</v>
       </c>
       <c r="Q305" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="306" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>320</v>
       </c>
@@ -20024,11 +19995,11 @@
         <v>37895</v>
       </c>
       <c r="Q306" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="307" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>322</v>
       </c>
@@ -20072,11 +20043,11 @@
         <v>43070</v>
       </c>
       <c r="Q307" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="308" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>313</v>
       </c>
@@ -20123,11 +20094,11 @@
         <v>42510</v>
       </c>
       <c r="Q308" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="309" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>321</v>
       </c>
@@ -20171,11 +20142,11 @@
         <v>44229</v>
       </c>
       <c r="Q309" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="310" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>316</v>
       </c>
@@ -20222,11 +20193,11 @@
         <v>44468</v>
       </c>
       <c r="Q310" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="311" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>333</v>
       </c>
@@ -20270,11 +20241,11 @@
         <v>43497</v>
       </c>
       <c r="Q311" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="312" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>317</v>
       </c>
@@ -20321,11 +20292,11 @@
         <v>42767</v>
       </c>
       <c r="Q312" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="313" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>318</v>
       </c>
@@ -20369,11 +20340,11 @@
         <v>41548</v>
       </c>
       <c r="Q313" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="314" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>319</v>
       </c>
@@ -20417,11 +20388,11 @@
         <v>45215</v>
       </c>
       <c r="Q314" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="315" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>324</v>
       </c>
@@ -20468,11 +20439,11 @@
         <v>43662</v>
       </c>
       <c r="Q315" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="316" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>325</v>
       </c>
@@ -20516,11 +20487,11 @@
         <v>45356</v>
       </c>
       <c r="Q316" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="317" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>335</v>
       </c>
@@ -20564,11 +20535,11 @@
         <v>44502</v>
       </c>
       <c r="Q317" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="318" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>314</v>
       </c>
@@ -20615,11 +20586,11 @@
         <v>42055</v>
       </c>
       <c r="Q318" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="319" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>331</v>
       </c>
@@ -20663,11 +20634,11 @@
         <v>42871</v>
       </c>
       <c r="Q319" t="str">
-        <f t="shared" ref="Q319:Q349" si="5">IF(ISNUMBER(SEARCH("Draft",E319)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="320" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="Q319:Q323" si="6">IF(ISNUMBER(SEARCH("Draft",E319)),"Draft","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>327</v>
       </c>
@@ -20714,11 +20685,11 @@
         <v>43709</v>
       </c>
       <c r="Q320" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="321" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>330</v>
       </c>
@@ -20762,11 +20733,11 @@
         <v>44805</v>
       </c>
       <c r="Q321" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="322" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>329</v>
       </c>
@@ -20813,11 +20784,11 @@
         <v>45089</v>
       </c>
       <c r="Q322" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="323" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>332</v>
       </c>
@@ -20864,11 +20835,11 @@
         <v>43662</v>
       </c>
       <c r="Q323" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="324" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>349</v>
       </c>
@@ -20882,13 +20853,13 @@
         <v>59</v>
       </c>
       <c r="E324" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F324" s="57" t="s">
+        <v>1290</v>
+      </c>
+      <c r="G324" s="61" t="s">
         <v>1291</v>
-      </c>
-      <c r="G324" s="61" t="s">
-        <v>1292</v>
       </c>
       <c r="H324" t="s">
         <v>816</v>
@@ -20908,21 +20879,21 @@
       <c r="M324" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="N324" s="73">
+      <c r="N324" s="72">
         <v>42326</v>
       </c>
       <c r="O324" s="56" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="P324" s="25">
         <v>41426</v>
       </c>
       <c r="Q324" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E324)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="325" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="Q324:Q335" si="7">IF(ISNUMBER(SEARCH("Draft",E324)),"Draft","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>338</v>
       </c>
@@ -20969,11 +20940,11 @@
         <v>40695</v>
       </c>
       <c r="Q325" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E325)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="326" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>355</v>
       </c>
@@ -21017,11 +20988,11 @@
         <v>42675</v>
       </c>
       <c r="Q326" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E326)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="327" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>347</v>
       </c>
@@ -21065,11 +21036,11 @@
         <v>45200</v>
       </c>
       <c r="Q327" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E327)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="328" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>343</v>
       </c>
@@ -21116,11 +21087,11 @@
         <v>41456</v>
       </c>
       <c r="Q328" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E328)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="329" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>345</v>
       </c>
@@ -21167,11 +21138,11 @@
         <v>42917</v>
       </c>
       <c r="Q329" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E329)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="330" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>336</v>
       </c>
@@ -21218,11 +21189,11 @@
         <v>41855</v>
       </c>
       <c r="Q330" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E330)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="331" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>344</v>
       </c>
@@ -21269,11 +21240,11 @@
         <v>44136</v>
       </c>
       <c r="Q331" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E331)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="332" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>339</v>
       </c>
@@ -21320,11 +21291,11 @@
         <v>38708</v>
       </c>
       <c r="Q332" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E332)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="333" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>354</v>
       </c>
@@ -21371,11 +21342,11 @@
         <v>44838</v>
       </c>
       <c r="Q333" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E333)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="334" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>340</v>
       </c>
@@ -21419,11 +21390,11 @@
         <v>45047</v>
       </c>
       <c r="Q334" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E334)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="335" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>341</v>
       </c>
@@ -21470,19 +21441,19 @@
         <v>44760</v>
       </c>
       <c r="Q335" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E335)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="336" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A336" s="77"/>
-      <c r="B336" s="79" t="s">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A336" s="76"/>
+      <c r="B336" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="C336" s="80" t="s">
+      <c r="C336" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="D336" s="80" t="s">
+      <c r="D336" s="21" t="s">
         <v>34</v>
       </c>
       <c r="E336" t="s">
@@ -21516,7 +21487,7 @@
         <v>44760</v>
       </c>
     </row>
-    <row r="337" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>342</v>
       </c>
@@ -21560,11 +21531,11 @@
         <v>44182</v>
       </c>
       <c r="Q337" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E337)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="338" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="Q337:Q349" si="8">IF(ISNUMBER(SEARCH("Draft",E337)),"Draft","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>346</v>
       </c>
@@ -21608,11 +21579,11 @@
         <v>43922</v>
       </c>
       <c r="Q338" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E338)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="339" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>356</v>
       </c>
@@ -21656,11 +21627,11 @@
         <v>45078</v>
       </c>
       <c r="Q339" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E339)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="340" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>337</v>
       </c>
@@ -21707,11 +21678,11 @@
         <v>39728</v>
       </c>
       <c r="Q340" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E340)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="341" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>352</v>
       </c>
@@ -21758,11 +21729,11 @@
         <v>41426</v>
       </c>
       <c r="Q341" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E341)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="342" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>348</v>
       </c>
@@ -21806,11 +21777,11 @@
         <v>42036</v>
       </c>
       <c r="Q342" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E342)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="343" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="343" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>351</v>
       </c>
@@ -21857,11 +21828,11 @@
         <v>44925</v>
       </c>
       <c r="Q343" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E343)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="344" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="344" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>350</v>
       </c>
@@ -21908,11 +21879,11 @@
         <v>43101</v>
       </c>
       <c r="Q344" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E344)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="345" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="345" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>132</v>
       </c>
@@ -21959,11 +21930,11 @@
         <v>43405</v>
       </c>
       <c r="Q345" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E345)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="346" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>167</v>
       </c>
@@ -22004,11 +21975,11 @@
         <v>44902</v>
       </c>
       <c r="Q346" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E346)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="347" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="347" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>169</v>
       </c>
@@ -22049,11 +22020,11 @@
         <v>44501</v>
       </c>
       <c r="Q347" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E347)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="348" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>364</v>
       </c>
@@ -22100,11 +22071,11 @@
         <v>44872</v>
       </c>
       <c r="Q348" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E348)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="349" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="349" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>98</v>
       </c>
@@ -22148,11 +22119,11 @@
         <v>44166</v>
       </c>
       <c r="Q349" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E349)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="350" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>360</v>
       </c>
@@ -22200,7 +22171,7 @@
       </c>
       <c r="Q350"/>
     </row>
-    <row r="351" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>97</v>
       </c>
@@ -22247,11 +22218,11 @@
         <v>38149</v>
       </c>
       <c r="Q351" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E351)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="352" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="Q351:Q395" si="9">IF(ISNUMBER(SEARCH("Draft",E351)),"Draft","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>96</v>
       </c>
@@ -22299,11 +22270,11 @@
         <v>917</v>
       </c>
       <c r="Q352" s="34" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E352)),"Draft","")</f>
+        <f t="shared" si="9"/>
         <v>Draft</v>
       </c>
     </row>
-    <row r="353" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>365</v>
       </c>
@@ -22350,11 +22321,11 @@
         <v>44470</v>
       </c>
       <c r="Q353" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E353)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="354" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>203</v>
       </c>
@@ -22395,11 +22366,11 @@
         <v>40602</v>
       </c>
       <c r="Q354" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E354)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="355" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>367</v>
       </c>
@@ -22446,11 +22417,11 @@
         <v>44865</v>
       </c>
       <c r="Q355" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E355)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="356" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>205</v>
       </c>
@@ -22496,11 +22467,11 @@
         <v>402</v>
       </c>
       <c r="Q356" s="40" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E356)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="357" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>206</v>
       </c>
@@ -22547,11 +22518,11 @@
         <v>42368</v>
       </c>
       <c r="Q357" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E357)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="358" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>38</v>
       </c>
@@ -22595,11 +22566,11 @@
         <v>43173</v>
       </c>
       <c r="Q358" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E358)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="359" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>39</v>
       </c>
@@ -22643,11 +22614,11 @@
         <v>40969</v>
       </c>
       <c r="Q359" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E359)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="360" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>177</v>
       </c>
@@ -22691,11 +22662,11 @@
         <v>45078</v>
       </c>
       <c r="Q360" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E360)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="361" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>173</v>
       </c>
@@ -22742,11 +22713,11 @@
         <v>45108</v>
       </c>
       <c r="Q361" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E361)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="362" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>179</v>
       </c>
@@ -22790,11 +22761,11 @@
         <v>42309</v>
       </c>
       <c r="Q362" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E362)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="363" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>366</v>
       </c>
@@ -22841,11 +22812,11 @@
         <v>44805</v>
       </c>
       <c r="Q363" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E363)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="364" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>99</v>
       </c>
@@ -22890,11 +22861,11 @@
         <v>917</v>
       </c>
       <c r="Q364" s="34" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E364)),"Draft","")</f>
+        <f t="shared" si="9"/>
         <v>Draft</v>
       </c>
     </row>
-    <row r="365" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>375</v>
       </c>
@@ -22941,11 +22912,11 @@
         <v>45013</v>
       </c>
       <c r="Q365" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E365)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="366" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>378</v>
       </c>
@@ -22992,11 +22963,11 @@
         <v>45238</v>
       </c>
       <c r="Q366" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E366)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="367" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>283</v>
       </c>
@@ -23040,11 +23011,11 @@
         <v>43216</v>
       </c>
       <c r="Q367" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E367)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="368" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>285</v>
       </c>
@@ -23091,11 +23062,11 @@
         <v>43047</v>
       </c>
       <c r="Q368" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E368)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="369" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>287</v>
       </c>
@@ -23142,11 +23113,11 @@
         <v>44904</v>
       </c>
       <c r="Q369" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E369)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="370" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>389</v>
       </c>
@@ -23194,11 +23165,11 @@
         <v>44075</v>
       </c>
       <c r="Q370" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E370)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="371" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="371" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>140</v>
       </c>
@@ -23243,11 +23214,11 @@
         <v>917</v>
       </c>
       <c r="Q371" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E371)),"Draft","")</f>
+        <f t="shared" si="9"/>
         <v>Draft</v>
       </c>
     </row>
-    <row r="372" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>141</v>
       </c>
@@ -23292,11 +23263,11 @@
         <v>44440</v>
       </c>
       <c r="Q372" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E372)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="373" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="373" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>142</v>
       </c>
@@ -23341,11 +23312,11 @@
         <v>44287</v>
       </c>
       <c r="Q373" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E373)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="374" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="374" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>137</v>
       </c>
@@ -23390,11 +23361,11 @@
         <v>38047</v>
       </c>
       <c r="Q374" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E374)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="375" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="375" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>384</v>
       </c>
@@ -23442,11 +23413,11 @@
         <v>43945</v>
       </c>
       <c r="Q375" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E375)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="376" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="376" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>386</v>
       </c>
@@ -23494,11 +23465,11 @@
         <v>42539</v>
       </c>
       <c r="Q376" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E376)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="377" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="377" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>148</v>
       </c>
@@ -23543,11 +23514,11 @@
         <v>40664</v>
       </c>
       <c r="Q377" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E377)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="378" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="378" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>150</v>
       </c>
@@ -23595,11 +23566,11 @@
         <v>42736</v>
       </c>
       <c r="Q378" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E378)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="379" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="379" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>391</v>
       </c>
@@ -23647,11 +23618,11 @@
         <v>44293</v>
       </c>
       <c r="Q379" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E379)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="380" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="380" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>151</v>
       </c>
@@ -23699,11 +23670,11 @@
         <v>44866</v>
       </c>
       <c r="Q380" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E380)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="381" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="381" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>253</v>
       </c>
@@ -23750,11 +23721,11 @@
         <v>42426</v>
       </c>
       <c r="Q381" s="14" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E381)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="382" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="382" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>395</v>
       </c>
@@ -23801,11 +23772,11 @@
         <v>45268</v>
       </c>
       <c r="Q382" s="14" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E382)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="383" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="383" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>269</v>
       </c>
@@ -23849,11 +23820,11 @@
         <v>41804</v>
       </c>
       <c r="Q383" s="14" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E383)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="384" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="384" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>402</v>
       </c>
@@ -23900,11 +23871,11 @@
         <v>45022</v>
       </c>
       <c r="Q384" s="14" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E384)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="385" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="385" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>265</v>
       </c>
@@ -23951,11 +23922,11 @@
         <v>44909</v>
       </c>
       <c r="Q385" s="14" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E385)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="386" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="386" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>268</v>
       </c>
@@ -23999,11 +23970,11 @@
         <v>38322</v>
       </c>
       <c r="Q386" s="14" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E386)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="387" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="387" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>401</v>
       </c>
@@ -24050,11 +24021,11 @@
         <v>45321</v>
       </c>
       <c r="Q387" s="14" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E387)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="388" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="388" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>267</v>
       </c>
@@ -24098,11 +24069,11 @@
         <v>41275</v>
       </c>
       <c r="Q388" s="14" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E388)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="389" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="389" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>270</v>
       </c>
@@ -24147,11 +24118,11 @@
         <v>917</v>
       </c>
       <c r="Q389" s="38" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E389)),"Draft","")</f>
+        <f t="shared" si="9"/>
         <v>Draft</v>
       </c>
     </row>
-    <row r="390" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>403</v>
       </c>
@@ -24198,11 +24169,11 @@
         <v>44764</v>
       </c>
       <c r="Q390" s="14" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E390)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="391" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="391" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>133</v>
       </c>
@@ -24248,11 +24219,11 @@
         <v>1201</v>
       </c>
       <c r="Q391" s="40" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E391)),"Draft","")</f>
+        <f t="shared" si="9"/>
         <v>Draft</v>
       </c>
     </row>
-    <row r="392" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>228</v>
       </c>
@@ -24296,11 +24267,11 @@
         <v>44627</v>
       </c>
       <c r="Q392" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E392)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="393" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="393" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>406</v>
       </c>
@@ -24347,11 +24318,11 @@
         <v>45161</v>
       </c>
       <c r="Q393" s="14" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E393)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="394" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="394" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A394" s="16">
         <v>77</v>
       </c>
@@ -24395,12 +24366,12 @@
         <v>43525</v>
       </c>
       <c r="Q394" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E394)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="395" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A395" s="78">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="395" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A395" s="77">
         <v>353</v>
       </c>
       <c r="B395" s="20" t="s">
@@ -24446,11 +24417,11 @@
         <v>45272</v>
       </c>
       <c r="Q395" t="str">
-        <f>IF(ISNUMBER(SEARCH("Draft",E395)),"Draft","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="396" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="396" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A396" s="1"/>
       <c r="B396" s="17" t="s">
         <v>416</v>
@@ -24497,7 +24468,7 @@
       </c>
       <c r="Q396"/>
     </row>
-    <row r="397" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A397" s="1"/>
       <c r="B397" s="17" t="s">
         <v>416</v>
@@ -24544,7 +24515,7 @@
       </c>
       <c r="Q397"/>
     </row>
-    <row r="398" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A398" s="1"/>
       <c r="B398" s="17" t="s">
         <v>416</v>
@@ -24591,7 +24562,7 @@
       </c>
       <c r="Q398"/>
     </row>
-    <row r="399" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A399" s="1"/>
       <c r="B399" s="17" t="s">
         <v>416</v>
@@ -24638,7 +24609,7 @@
       </c>
       <c r="Q399"/>
     </row>
-    <row r="400" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A400" s="1"/>
       <c r="B400" s="17" t="s">
         <v>416</v>
@@ -24682,7 +24653,7 @@
       </c>
       <c r="Q400"/>
     </row>
-    <row r="401" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A401" s="1"/>
       <c r="B401" s="17" t="s">
         <v>416</v>
@@ -24729,7 +24700,7 @@
       </c>
       <c r="Q401"/>
     </row>
-    <row r="402" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A402" s="1"/>
       <c r="B402" s="17" t="s">
         <v>416</v>
@@ -24775,7 +24746,7 @@
       </c>
       <c r="Q402"/>
     </row>
-    <row r="403" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A403" s="1"/>
       <c r="B403" s="17" t="s">
         <v>416</v>
@@ -24822,7 +24793,7 @@
       </c>
       <c r="Q403"/>
     </row>
-    <row r="404" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A404" s="1"/>
       <c r="B404" s="17" t="s">
         <v>416</v>
@@ -24869,7 +24840,7 @@
       </c>
       <c r="Q404"/>
     </row>
-    <row r="405" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A405" s="1"/>
       <c r="B405" s="17" t="s">
         <v>416</v>
@@ -24916,7 +24887,7 @@
       </c>
       <c r="Q405"/>
     </row>
-    <row r="406" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A406" s="1"/>
       <c r="B406" s="17" t="s">
         <v>416</v>
@@ -24963,7 +24934,7 @@
       </c>
       <c r="Q406"/>
     </row>
-    <row r="407" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A407" s="1"/>
       <c r="B407" s="17" t="s">
         <v>416</v>
@@ -25007,7 +24978,7 @@
       </c>
       <c r="Q407"/>
     </row>
-    <row r="408" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A408" s="1"/>
       <c r="B408" s="17" t="s">
         <v>416</v>
@@ -25054,7 +25025,7 @@
       </c>
       <c r="Q408"/>
     </row>
-    <row r="409" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A409" s="1"/>
       <c r="B409" s="17" t="s">
         <v>416</v>
@@ -25098,7 +25069,7 @@
       </c>
       <c r="Q409"/>
     </row>
-    <row r="410" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A410" s="1"/>
       <c r="B410" s="17" t="s">
         <v>416</v>
@@ -25145,7 +25116,7 @@
       </c>
       <c r="Q410"/>
     </row>
-    <row r="411" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
       <c r="B411" s="17" t="s">
         <v>416</v>
@@ -25189,7 +25160,7 @@
       </c>
       <c r="Q411"/>
     </row>
-    <row r="412" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A412" s="1"/>
       <c r="B412" s="17" t="s">
         <v>416</v>
@@ -25236,7 +25207,7 @@
       </c>
       <c r="Q412"/>
     </row>
-    <row r="413" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A413" s="1"/>
       <c r="B413" s="17" t="s">
         <v>416</v>
@@ -25283,7 +25254,7 @@
       </c>
       <c r="Q413"/>
     </row>
-    <row r="414" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A414" s="1"/>
       <c r="B414" s="17" t="s">
         <v>416</v>
@@ -25330,7 +25301,7 @@
       </c>
       <c r="Q414"/>
     </row>
-    <row r="415" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A415" s="1"/>
       <c r="B415" s="17" t="s">
         <v>416</v>
@@ -25377,7 +25348,7 @@
       </c>
       <c r="Q415"/>
     </row>
-    <row r="416" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A416" s="1"/>
       <c r="B416" s="17" t="s">
         <v>416</v>
@@ -25423,7 +25394,7 @@
       </c>
       <c r="Q416"/>
     </row>
-    <row r="417" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A417" s="56"/>
       <c r="B417" s="56" t="s">
         <v>252</v>
@@ -25467,7 +25438,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row r="418" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A418" s="56"/>
       <c r="B418" s="56" t="s">
         <v>252</v>
@@ -25510,7 +25481,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row r="419" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A419" s="65"/>
       <c r="B419" s="56" t="s">
         <v>410</v>
@@ -25556,14 +25527,14 @@
         <v>45462</v>
       </c>
     </row>
-    <row r="420" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B420" s="71" t="s">
+    <row r="420" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B420" s="56" t="s">
         <v>410</v>
       </c>
       <c r="C420" s="56" t="s">
         <v>237</v>
       </c>
-      <c r="D420" s="72" t="s">
+      <c r="D420" s="71" t="s">
         <v>1285</v>
       </c>
       <c r="E420" s="56" t="s">
@@ -25573,51 +25544,51 @@
         <v>37</v>
       </c>
     </row>
-    <row r="421" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A421" s="56"/>
-      <c r="B421" s="71" t="s">
+      <c r="B421" s="56" t="s">
         <v>416</v>
       </c>
-      <c r="C421" s="71" t="s">
+      <c r="C421" s="56" t="s">
         <v>343</v>
       </c>
-      <c r="D421" s="71" t="s">
+      <c r="D421" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="E421" s="71" t="s">
+      <c r="E421" s="56" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F421" s="61" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G421" s="57" t="s">
         <v>1294</v>
       </c>
-      <c r="F421" s="61" t="s">
-        <v>1296</v>
-      </c>
-      <c r="G421" s="57" t="s">
-        <v>1295</v>
-      </c>
-      <c r="H421" s="71" t="s">
-        <v>1287</v>
-      </c>
-      <c r="I421" s="71" t="s">
+      <c r="H421" s="56" t="s">
+        <v>816</v>
+      </c>
+      <c r="I421" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J421" s="71" t="s">
+      <c r="J421" s="56" t="s">
         <v>974</v>
       </c>
-      <c r="K421" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="L421" s="81" t="s">
+      <c r="K421" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="L421" s="78" t="s">
         <v>1202</v>
       </c>
-      <c r="M421" s="81" t="s">
+      <c r="M421" s="78" t="s">
         <v>59</v>
       </c>
       <c r="N421" s="59">
         <v>45436</v>
       </c>
-      <c r="O421" s="84" t="s">
-        <v>1297</v>
-      </c>
-      <c r="P421" s="82">
+      <c r="O421" s="56" t="s">
+        <v>1296</v>
+      </c>
+      <c r="P421" s="79">
         <v>44924</v>
       </c>
     </row>
@@ -25627,22 +25598,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q421" xr:uid="{B9C89D7B-8F37-A94E-AED8-9AA1263A2C6A}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Albania"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q23">
-      <sortCondition ref="D1:D421"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="F1:F51 G40:G42 G44:G51 G53:G54 F53:F162 G56:G62 G83:G86 G94:G98 G146:G147 F163:G173 H165:H173 G175:H176 F175:F185 G185 G189:G191 F189:F194 G193:G194 G196:G200 F196:F245 G201:H201 G203:G205 G207:G209 G211 G213:G219 G221:G245 F246:G246 G247:G294 F247:F354 H262:H344 I264 G297:G331 I326:I327 G333:G334 I334 I336:I338 G336:G344 I341 G346:G350 G352:G354 F357:F407 G367:G369 G381 G383 G385:G391 G393 I407:I408 H421:K421">
+  <autoFilter ref="A1:Q1048555" xr:uid="{B9C89D7B-8F37-A94E-AED8-9AA1263A2C6A}"/>
+  <conditionalFormatting sqref="F1:F51 G40:G42 G44:G51 G53:G54 F53:F162 G56:G62 G83:G86 G94:G98 G146:G147 F163:G173 H165:H173 G175:H176 F175:F185 G185 G189:G191 F189:F194 G193:G194 G196:G200 F196:F245 G201:H201 G203:G205 G207:G209 G211 G213:G219 G221:G245 F246:G246 G247:G294 F247:F354 H262:H344 I264 G297:G331 I326:I327 G333:G334 I334 I336:I338 G336:G344 I341 G346:G350 G352:G354 F357:F407 G367:G369 G381 G383 G385:G391 G393 I407:I408">
     <cfRule type="containsText" dxfId="23" priority="86" operator="containsText" text="sharepoint">
       <formula>NOT(ISERROR(SEARCH("sharepoint",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F409:F1048576 G421">
+  <conditionalFormatting sqref="F409:F1048576 G421:K421">
     <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="sharepoint">
       <formula>NOT(ISERROR(SEARCH("sharepoint",F409)))</formula>
     </cfRule>
